--- a/data/tables_breakdown.xlsx
+++ b/data/tables_breakdown.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,18 +453,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="3" customWidth="1" min="4" max="4"/>
-    <col width="34" customWidth="1" min="5" max="5"/>
-    <col width="38" customWidth="1" min="6" max="6"/>
-    <col width="11" customWidth="1" min="7" max="7"/>
-    <col width="37" customWidth="1" min="8" max="8"/>
-    <col width="36" customWidth="1" min="9" max="9"/>
-    <col width="40" customWidth="1" min="10" max="10"/>
-    <col width="25" customWidth="1" min="11" max="11"/>
-    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="59" customWidth="1" min="5" max="5"/>
+    <col width="34" customWidth="1" min="6" max="6"/>
+    <col width="38" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="37" customWidth="1" min="9" max="9"/>
+    <col width="36" customWidth="1" min="10" max="10"/>
+    <col width="40" customWidth="1" min="11" max="11"/>
+    <col width="25" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -477,7 +478,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>Disability</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -497,40 +498,45 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
+          <t>Average % of disempowered women's inadequate achievements</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
           <t>% of women achieving empowerment</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>% of women not achieving empowerment</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>GPI Score</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>N (Number of dual-adult households)</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>% of women achieving gender parity</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>% of women not achieving gender parity</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>Average empowerment gap</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>WEAI Score</t>
         </is>
@@ -539,81 +545,87 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>puntland</t>
+          <t>no disability</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0.4333</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.53</v>
+        <v>0.5667</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.4033</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jubaland</t>
+          <t>disability</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.8333</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.53</v>
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.3375</v>
       </c>
     </row>
     <row r="5"/>
@@ -640,40 +652,45 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
+          <t>Average % of disempowered women's inadequate achievements</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
           <t>% of women achieving empowerment</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>% of women not achieving empowerment</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="H6" s="1" t="inlineStr">
         <is>
           <t>GPI Score</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
+      <c r="I6" s="1" t="inlineStr">
         <is>
           <t>N (Number of dual-adult households)</t>
         </is>
       </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="J6" s="1" t="inlineStr">
         <is>
           <t>% of women achieving gender parity</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="K6" s="1" t="inlineStr">
         <is>
           <t>% of women not achieving gender parity</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="L6" s="1" t="inlineStr">
         <is>
           <t>Average empowerment gap</t>
         </is>
       </c>
-      <c r="L6" s="1" t="inlineStr">
+      <c r="M6" s="1" t="inlineStr">
         <is>
           <t>WEAI Score</t>
         </is>
@@ -686,43 +703,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0.35</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.53</v>
+        <v>0.65</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>35 - 44</t>
+          <t>45 - 54</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -732,31 +752,274 @@
         <v>0.5</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8</v>
+        <v>0.6667</v>
       </c>
       <c r="H8" t="n">
+        <v>0.4667</v>
+      </c>
+      <c r="I8" t="n">
         <v>2</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.53</v>
+        <v>0.5333</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.4967</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>35 - 44</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2889</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.7111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.2989</v>
+      </c>
+    </row>
+    <row r="10"/>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>State</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>5DE</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>Disempowerment Score</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>Average % of disempowered women's inadequate achievements</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>% of women achieving empowerment</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>% of women not achieving empowerment</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>GPI Score</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="inlineStr">
+        <is>
+          <t>N (Number of dual-adult households)</t>
+        </is>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>% of women achieving gender parity</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>% of women not achieving gender parity</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="inlineStr">
+        <is>
+          <t>Average empowerment gap</t>
+        </is>
+      </c>
+      <c r="M11" s="1" t="inlineStr">
+        <is>
+          <t>WEAI Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>puntland</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>south west state</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.595</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>jubaland</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.3258</v>
       </c>
     </row>
   </sheetData>
